--- a/src/test/java/com/testdata/TestDataGrid.xlsx
+++ b/src/test/java/com/testdata/TestDataGrid.xlsx
@@ -12,7 +12,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>firstname</t>
   </si>
@@ -77,12 +77,19 @@
   </si>
   <si>
     <t>Rupa</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +126,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -135,10 +152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -427,6 +445,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="6.515625" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -453,6 +474,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -479,6 +503,9 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -505,6 +532,9 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -531,6 +561,9 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -557,6 +590,9 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -583,8 +619,15 @@
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>

--- a/src/test/java/com/testdata/TestDataGrid.xlsx
+++ b/src/test/java/com/testdata/TestDataGrid.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="2415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="2415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegTest" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O6"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>firstname</t>
   </si>
@@ -83,13 +84,18 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>passWord</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,11 +132,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
       </patternFill>
     </fill>
     <fill>
@@ -156,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -438,18 +439,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="6.515625" collapsed="true"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,11 +475,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -507,7 +508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -536,7 +537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -565,7 +566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -594,7 +595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -623,7 +624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>20</v>
       </c>
@@ -639,4 +640,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>